--- a/model/results/result comparison.xlsx
+++ b/model/results/result comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\Capstone_USV\model\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238A4F70-A88B-4C50-AD34-5A6DF952B138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37274D6B-F952-4B1F-B9CB-7B566548E633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3156" yWindow="1788" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>baseline</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,7 +43,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lifted_state = 9</t>
+    <t>Tuning v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K = 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE tuning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regulation tuning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuning v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuning v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K = 8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -83,16 +111,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -384,101 +518,335 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D2" s="2">
         <v>0.3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E2" s="3">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.9731130674481299E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.17787218559533E-2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B5" s="2">
+        <v>1.5660748695954602E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.48758944682776E-2</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.17787218559533E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.5743572786450302E-2</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.2602532887831299E-2</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.19730081129819E-2</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2.9731130674481299E-2</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>1.17787218559533E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1.5660748695954602E-2</v>
-      </c>
-      <c r="C4">
+      <c r="B13" s="2">
+        <v>7.46897682547569E-3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5.4863473167642901E-3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6.6088595194741997E-3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2.7522539952769798E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5.4863473167642901E-3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.9915671097114601E-3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4.0364366373978498E-3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="H14" s="4">
+        <v>6.0590485343709503E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4.0364366373978498E-3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4.5150837628170799E-3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.7168528176844098E-3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="H15" s="4">
+        <v>4.0364366373978498E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3.8514290819875799E-3</v>
+      </c>
+      <c r="C16" s="6">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3.6112417466938398E-3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2.8046704013831901E-3</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2.9402296291664199E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>2.48758944682776E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1.17787218559533E-2</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>1.5743572786450302E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1.2602532887831299E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1.19730081129819E-2</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="9">
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model/results/result comparison.xlsx
+++ b/model/results/result comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\Capstone_USV\model\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37274D6B-F952-4B1F-B9CB-7B566548E633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96737FA-FB47-48DC-B1A0-29FFDCDAF20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3156" yWindow="1788" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,6 +242,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160140</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C13CB2-C568-4C5C-A7E8-41E0CB190BA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6713220" y="3352800"/>
+          <a:ext cx="1379340" cy="914479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -851,5 +900,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>